--- a/data_delta_raw.xlsx
+++ b/data_delta_raw.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+  <si>
+    <t>date</t>
+  </si>
   <si>
     <t>福耀玻璃-(600660)</t>
   </si>
@@ -47,9 +50,6 @@
   </si>
   <si>
     <t>上证指数-(SH000001)</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>2012-07-31</t>
@@ -236,26 +236,22 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -270,35 +266,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -586,86 +573,92 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2">
+      <c r="B2" t="n">
         <v>-5.241672109732197</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>-7.835455435847205</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>-7.122247532270316</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>-11.4544250717281</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>-1.573892939711894</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>-7.282793867120947</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>4.670638003971343</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>-2.88090288090288</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>-0.2105421460260072</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>-5.473099580755168</v>
       </c>
     </row>
@@ -673,37 +666,37 @@
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>-4.30811649146993</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>-0.504782146652489</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>-24.01079136690647</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>-14.20737786640078</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.289095672599151</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>-10.84060633899862</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>-10.82591004069065</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>-10.44377116378541</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.2446483180428136</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>-3.518951096375559</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>-2.667294153439537</v>
       </c>
     </row>
@@ -711,37 +704,37 @@
       <c r="A4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="n">
         <v>-0.7023230686115559</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>2.803738317757009</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>31.40398063474987</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>-0.3776873910517241</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>-1.495360778308264</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>11.84914781836569</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>3.363184079601981</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>8.968883465527762</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>4.201811933770698</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>1.887649449089635</v>
       </c>
     </row>
@@ -749,37 +742,37 @@
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>-0.2901704751541533</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>-5.064935064935073</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>-5.289012608482077</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>-1.399825021872267</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>-3.136716963877458</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.4636785162287427</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>0.6262817826978607</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>-3.157489410858677</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>-4.983202687569987</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>7.525108679358413</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>-0.8287915174698114</v>
       </c>
     </row>
@@ -787,37 +780,37 @@
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>2.419061476900692</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>-13.95348837209302</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>-13.66701244813278</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>-4.199940845903576</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>-1.661631419939579</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>-2.410256410256407</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>-12.66682737612588</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>-15.10934393638172</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>-5.509723040659996</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>-15.0843440680329</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>-4.290243996751876</v>
       </c>
     </row>
@@ -825,37 +818,37 @@
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>21.96767892026283</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>8.489666136724958</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>38.67027135275859</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>14.63414634146342</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>10.752688172043</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>-3.235803367544094</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>10.93676814988292</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>6.392266916120988</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>6.074536200952227</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>14.59558006585461</v>
       </c>
     </row>
@@ -863,37 +856,37 @@
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>-4.790331974373917</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>3.341148886283701</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>-0.5848797747129721</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>11.01535146781578</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>6.744105409153957</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>7.461902259590116</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>-14.41009815489543</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>27.57019210470762</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>1.055099648300118</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>1.787648970747561</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>5.124871646842621</v>
       </c>
     </row>
@@ -901,37 +894,37 @@
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>-0.1070500076464241</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>7.572319909245614</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>5.156885531667628</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>-3.833090732654049</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>-0.6740295598505781</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>-0.4889975550122145</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>-2.179989243972469</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>0.0827403607479711</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>-4.408352668213461</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>4.835398768341817</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>-0.8313001484015363</v>
       </c>
     </row>
@@ -939,37 +932,37 @@
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10">
+      <c r="B10" t="n">
         <v>-2.770973668095531</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>-7.540205641972054</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>-19.04959248514988</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>-14.1271442986882</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1.888643610497914</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>-5.110565110565115</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>-3.508568154188052</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>-4.431216931216928</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>-6.219660194174746</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>12.72028428457466</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>-5.451916857950881</v>
       </c>
     </row>
@@ -977,37 +970,37 @@
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>0.6298220752637386</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>-4.077559167379533</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.7679180887372001</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>-4.083431257344295</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>-6.16273471352912</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>3.038279431827291</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>-6.366782006920421</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>-9.770300873503722</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>-6.523837097085501</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>-2.624942994339675</v>
       </c>
     </row>
@@ -1015,37 +1008,37 @@
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B12" t="n">
         <v>10.4052573932092</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>27.49702734839477</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>7.527519051651137</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>3.460949464012251</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>7.995553275183844</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>13.28234524440014</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>11.19733924611973</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>-1.613481534600213</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>6.043086241310483</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>5.632923307207383</v>
       </c>
     </row>
@@ -1053,37 +1046,37 @@
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13">
+      <c r="B13" t="n">
         <v>-15.49036281179138</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>-4.639776171601769</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>-21.63949917316324</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>-24.21551213735939</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>-12.61382532267004</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>-21.07716209218022</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>0.8057751804744073</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>-12.86141575274178</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>-22.74052478134111</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>-9.709872136042062</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>-13.96946000808489</v>
       </c>
     </row>
@@ -1091,37 +1084,37 @@
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14">
+      <c r="B14" t="n">
         <v>-0.7043434512829082</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>-12.15158924205379</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>8.270525575319049</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>-4.687500000000004</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>3.361725262776373</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>-1.837270341207351</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>-12.40877903725226</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>-1.525553012967202</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>6.745283018867915</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>3.047947667313646</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>0.7371628073827394</v>
       </c>
     </row>
@@ -1129,37 +1122,37 @@
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15">
+      <c r="B15" t="n">
         <v>5.455159601418671</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="n">
         <v>0.9741163373225756</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>-0.08353443475031154</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>8.155737704918026</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>33.2076794950469</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>10.7620320855615</v>
       </c>
-      <c r="H15">
+      <c r="H15" t="n">
         <v>0.1666303298346145</v>
       </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>5.383423702556167</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>8.219178082191778</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>24.0320892919428</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>5.245260306951558</v>
       </c>
     </row>
@@ -1167,37 +1160,37 @@
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16">
+      <c r="B16" t="n">
         <v>13.69314541960282</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>5.347298787210582</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0.1672085462145741</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>2.311481621826464</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>-5.13984863441922</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>5.129752564876281</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>-19.45709799287946</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>0.918779860345458</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>-1.510820743160471</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>11.04049493813272</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>3.635661796242814</v>
       </c>
     </row>
@@ -1205,37 +1198,37 @@
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17">
+      <c r="B17" t="n">
         <v>-1.760811381884772</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>-4.814233385661961</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>-2.531762960215151</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>-4.814814814814827</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>-2.185375329540721</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>0.5166475315728989</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>-0.6109330965525186</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>-9.577567370721045</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>-5.016583747927031</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>-13.27559134883249</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>-1.520230655685688</v>
       </c>
     </row>
@@ -1243,37 +1236,37 @@
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18">
+      <c r="B18" t="n">
         <v>2.136507026096932</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>9.01594282572843</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>9.438629876308287</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>1.284046692607018</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>1.893751329881548</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0.571102227298687</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>4.685421299488248</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>8.397100281917032</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>-0.8293321693583645</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>-2.809251255694438</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>3.683677233483214</v>
       </c>
     </row>
@@ -1281,37 +1274,37 @@
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B19">
+      <c r="B19" t="n">
         <v>-3.481679067808511</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>-3.378719112455884</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>-1.269344461832732</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>-4.648482520169035</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>-5.039677015174719</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>-5.905735377626342</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>-9.233423620644881</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>0.7245030652052703</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>-5.677816901408452</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>-0.08412955952165943</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>-4.707047962170682</v>
       </c>
     </row>
@@ -1319,37 +1312,37 @@
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B20">
+      <c r="B20" t="n">
         <v>-7.476363636363639</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>7.385177453027151</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>-7.934131736526945</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>-9.58904109589041</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>-6.77320041049699</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>-5.129752564876281</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>2.974961676034749</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>-4.758391737366286</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>-3.033131124591692</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>-3.58453118421844</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>-3.917806406487778</v>
       </c>
     </row>
@@ -1357,37 +1350,37 @@
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B21">
+      <c r="B21" t="n">
         <v>2.468165382801447</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>1.093560145808018</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>-6.437111429937829</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>1.024955436720129</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>-3.899984274256962</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>-1.208651399491102</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>13.47942160161174</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>2.498063516653766</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>6.256015399422539</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>12.75029630091698</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>1.14210950872569</v>
       </c>
     </row>
@@ -1395,37 +1388,37 @@
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B22">
+      <c r="B22" t="n">
         <v>5.093586989874193</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>-5.024038461538463</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>-8.096503782457573</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>-3.881782090868993</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>-2.020945835378824</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>2.382485511912437</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>3.1195613198884</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>6.574721330058566</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>-5.480072463768115</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>-12.35961272475795</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>-1.118027525166573</v>
       </c>
     </row>
@@ -1433,37 +1426,37 @@
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="B23" t="n">
         <v>1.810218978102198</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>5.289800050620098</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>2.836484983314783</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>-1.193207893529133</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>5.252609603340288</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>-1.132075471698114</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>5.934187091849716</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>-9.324587839035628</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>-1.341638715860087</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>-1.565557729941287</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>-0.341807201066244</v>
       </c>
     </row>
@@ -1471,37 +1464,37 @@
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
+      <c r="B24" t="n">
         <v>3.025523372526518</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>4.759615384615373</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>-0.389399675500266</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>3.483511379470514</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>0.7537289749285992</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>2.35368956743002</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>-6.504839600662892</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>4.261974584555229</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>-1.35988343856241</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>-2.898736612582569</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>0.6341420083302146</v>
       </c>
     </row>
@@ -1509,37 +1502,37 @@
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
+      <c r="B25" t="n">
         <v>2.936673625608912</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>2.363469481413507</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>-3.170811162992722</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>0.2692998204667766</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>-3.22860067721868</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>0.6215040397762591</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>4.729324724700733</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>5.962872679542464</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>-0.4431314623338425</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>5.263853114061162</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>0.4472320163200401</v>
       </c>
     </row>
@@ -1547,37 +1540,37 @@
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
+      <c r="B26" t="n">
         <v>15.95457003785831</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>14.34655906747365</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>10.51923292587194</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>18.21844225604297</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>6.200667263406302</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>11.42680667078444</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>12.88173010097706</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>11.25464519554061</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>14.68842729970327</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>2.183460911030247</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>7.480728202975108</v>
       </c>
     </row>
@@ -1585,37 +1578,37 @@
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
+      <c r="B27" t="n">
         <v>2.565298507462673</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>0.7645559694177554</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>-3.581938102486045</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>-1.741764483150315</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>1.156999463642631</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>2.161862527716182</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>-1.272635086194412</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>-5.390254420008624</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>11.0155962176102</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>0.7104053489343862</v>
       </c>
     </row>
@@ -1623,37 +1616,37 @@
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B28">
+      <c r="B28" t="n">
         <v>5.309231468849483</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>11.98443579766538</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>7.030098926541772</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>13.37186897880539</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>11.05893046508105</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>38.30710797612588</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>2.464362486519012</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>17.94178463496103</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>8.796718322698272</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>1.039823008849571</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>6.615100126285409</v>
       </c>
     </row>
@@ -1661,37 +1654,37 @@
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B29">
+      <c r="B29" t="n">
         <v>1.241498434632411</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>-0.9555246699096699</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>6.125860373647978</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>-2.92318150917744</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>3.321511389987712</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>0.3923107100823943</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>-3.360971488307497</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>-2.683749157113956</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>6.032677000418942</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>-0.4215020801401452</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>2.382110691366274</v>
       </c>
     </row>
@@ -1699,37 +1692,37 @@
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
+      <c r="B30" t="n">
         <v>6.568564725954358</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>1.508507279424668</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>54.12767534513113</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>18.31232492997199</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>11.69714172552644</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>11.48886283704572</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>-0.5364234485211232</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>6.360864745011082</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>6.479652311339379</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>11.53867297015008</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>10.8524985744862</v>
       </c>
     </row>
@@ -1737,37 +1730,37 @@
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
+      <c r="B31" t="n">
         <v>6.96417850710426</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>-3.628823224468636</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>44.88728584310188</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>46.61142349807635</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>12.88930914248568</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>73.53662811076059</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>21.67620154345817</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>-11.19218241042345</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>20.70500927643786</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>5.564317397732879</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>20.56969692451627</v>
       </c>
     </row>
@@ -1775,37 +1768,37 @@
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B32">
+      <c r="B32" t="n">
         <v>9.055191768007484</v>
       </c>
-      <c r="C32">
+      <c r="C32" t="n">
         <v>2.922718307333696</v>
       </c>
-      <c r="D32">
+      <c r="D32" t="n">
         <v>-15.60451414820347</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="n">
         <v>-20.71053693984658</v>
       </c>
-      <c r="F32">
+      <c r="F32" t="n">
         <v>3.921055386870478</v>
       </c>
-      <c r="G32">
+      <c r="G32" t="n">
         <v>-18.4205211068471</v>
       </c>
-      <c r="H32">
+      <c r="H32" t="n">
         <v>-6.560428056298696</v>
       </c>
-      <c r="I32">
+      <c r="I32" t="n">
         <v>4.548122065727707</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="n">
         <v>6.209652628343067</v>
       </c>
-      <c r="K32">
+      <c r="K32" t="n">
         <v>3.758345394276109</v>
       </c>
-      <c r="L32">
+      <c r="L32" t="n">
         <v>-0.7518518060519034</v>
       </c>
     </row>
@@ -1813,37 +1806,37 @@
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B33">
+      <c r="B33" t="n">
         <v>12.46354434722938</v>
       </c>
-      <c r="C33">
+      <c r="C33" t="n">
         <v>10.19163763066202</v>
       </c>
-      <c r="D33">
+      <c r="D33" t="n">
         <v>7.94454549923799</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="n">
         <v>13.74745417515275</v>
       </c>
-      <c r="F33">
+      <c r="F33" t="n">
         <v>3.480932950481097</v>
       </c>
-      <c r="G33">
+      <c r="G33" t="n">
         <v>12.62688784352564</v>
       </c>
-      <c r="H33">
+      <c r="H33" t="n">
         <v>7.828234847045397</v>
       </c>
-      <c r="I33">
+      <c r="I33" t="n">
         <v>-0.8419870895313007</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="n">
         <v>-1.128798842257602</v>
       </c>
-      <c r="K33">
+      <c r="K33" t="n">
         <v>9.507739380849529</v>
       </c>
-      <c r="L33">
+      <c r="L33" t="n">
         <v>3.113046511917668</v>
       </c>
     </row>
@@ -1851,37 +1844,37 @@
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B34">
+      <c r="B34" t="n">
         <v>12.35603691556707</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="n">
         <v>22.81422924901185</v>
       </c>
-      <c r="D34">
+      <c r="D34" t="n">
         <v>18.01703329234413</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="n">
         <v>13.31692032229185</v>
       </c>
-      <c r="F34">
+      <c r="F34" t="n">
         <v>14.40950248271832</v>
       </c>
-      <c r="G34">
+      <c r="G34" t="n">
         <v>20.88371070564957</v>
       </c>
-      <c r="H34">
+      <c r="H34" t="n">
         <v>2.569649096156776</v>
       </c>
-      <c r="I34">
+      <c r="I34" t="n">
         <v>34.88536654401359</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="n">
         <v>21.692037470726</v>
       </c>
-      <c r="K34">
+      <c r="K34" t="n">
         <v>0</v>
       </c>
-      <c r="L34">
+      <c r="L34" t="n">
         <v>13.21934567863939</v>
       </c>
     </row>
@@ -1889,37 +1882,37 @@
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B35">
+      <c r="B35" t="n">
         <v>-2.484556377706874</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="n">
         <v>17.8681771369722</v>
       </c>
-      <c r="D35">
+      <c r="D35" t="n">
         <v>1.11141126075715</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="n">
         <v>-3.851471459608915</v>
       </c>
-      <c r="F35">
+      <c r="F35" t="n">
         <v>14.4583439707259</v>
       </c>
-      <c r="G35">
+      <c r="G35" t="n">
         <v>96.63575195490091</v>
       </c>
-      <c r="H35">
+      <c r="H35" t="n">
         <v>28.71555176417619</v>
       </c>
-      <c r="I35">
+      <c r="I35" t="n">
         <v>40.41548630783757</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="n">
         <v>0</v>
       </c>
-      <c r="K35">
+      <c r="K35" t="n">
         <v>0</v>
       </c>
-      <c r="L35">
+      <c r="L35" t="n">
         <v>18.5103658048507</v>
       </c>
     </row>
@@ -1927,37 +1920,37 @@
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B36">
+      <c r="B36" t="n">
         <v>5.046989209885135</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="n">
         <v>16.61205766710353</v>
       </c>
-      <c r="D36">
+      <c r="D36" t="n">
         <v>-7.763062478531349</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="n">
         <v>-0.3286770747740348</v>
       </c>
-      <c r="F36">
+      <c r="F36" t="n">
         <v>8.542750929368037</v>
       </c>
-      <c r="G36">
+      <c r="G36" t="n">
         <v>-22.0290391195783</v>
       </c>
-      <c r="H36">
+      <c r="H36" t="n">
         <v>4.598738016449057</v>
       </c>
-      <c r="I36">
+      <c r="I36" t="n">
         <v>13.57692595083315</v>
       </c>
-      <c r="J36">
+      <c r="J36" t="n">
         <v>61.36636997834978</v>
       </c>
-      <c r="K36">
+      <c r="K36" t="n">
         <v>0</v>
       </c>
-      <c r="L36">
+      <c r="L36" t="n">
         <v>3.829432755845241</v>
       </c>
     </row>
@@ -1965,37 +1958,37 @@
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B37">
+      <c r="B37" t="n">
         <v>-13.08813783962889</v>
       </c>
-      <c r="C37">
+      <c r="C37" t="n">
         <v>-15.70665917392526</v>
       </c>
-      <c r="D37">
+      <c r="D37" t="n">
         <v>-12.31017503206853</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="n">
         <v>-9.171475680131911</v>
       </c>
-      <c r="F37">
+      <c r="F37" t="n">
         <v>5.699020480854846</v>
       </c>
-      <c r="G37">
+      <c r="G37" t="n">
         <v>-15.92930850432925</v>
       </c>
-      <c r="H37">
+      <c r="H37" t="n">
         <v>-2.342598418614071</v>
       </c>
-      <c r="I37">
+      <c r="I37" t="n">
         <v>-20.98684210526316</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="n">
         <v>-26.55038759689923</v>
       </c>
-      <c r="K37">
+      <c r="K37" t="n">
         <v>31.4171837120434</v>
       </c>
-      <c r="L37">
+      <c r="L37" t="n">
         <v>-7.253661307879446</v>
       </c>
     </row>
@@ -2003,37 +1996,37 @@
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B38">
+      <c r="B38" t="n">
         <v>-7.068242470453676</v>
       </c>
-      <c r="C38">
+      <c r="C38" t="n">
         <v>-7.111111111111118</v>
       </c>
-      <c r="D38">
+      <c r="D38" t="n">
         <v>-17.66232540581351</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="n">
         <v>-16.9503063308373</v>
       </c>
-      <c r="F38">
+      <c r="F38" t="n">
         <v>-10.85153262912318</v>
       </c>
-      <c r="G38">
+      <c r="G38" t="n">
         <v>-3.287246049661394</v>
       </c>
-      <c r="H38">
+      <c r="H38" t="n">
         <v>-10.13584446597129</v>
       </c>
-      <c r="I38">
+      <c r="I38" t="n">
         <v>-12.32306411323897</v>
       </c>
-      <c r="J38">
+      <c r="J38" t="n">
         <v>-19.93099249035924</v>
       </c>
-      <c r="K38">
+      <c r="K38" t="n">
         <v>-5.815589531938841</v>
       </c>
-      <c r="L38">
+      <c r="L38" t="n">
         <v>-14.34319487891668</v>
       </c>
     </row>
@@ -2041,37 +2034,37 @@
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B39">
+      <c r="B39" t="n">
         <v>-8.44273055464391</v>
       </c>
-      <c r="C39">
+      <c r="C39" t="n">
         <v>-13.1578947368421</v>
       </c>
-      <c r="D39">
+      <c r="D39" t="n">
         <v>-27.82394406556251</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="n">
         <v>18.41530054644807</v>
       </c>
-      <c r="F39">
+      <c r="F39" t="n">
         <v>-2.384327408861274</v>
       </c>
-      <c r="G39">
+      <c r="G39" t="n">
         <v>0</v>
       </c>
-      <c r="H39">
+      <c r="H39" t="n">
         <v>-5.540764807043412</v>
       </c>
-      <c r="I39">
+      <c r="I39" t="n">
         <v>2.279202279202281</v>
       </c>
-      <c r="J39">
+      <c r="J39" t="n">
         <v>-11.22940430925222</v>
       </c>
-      <c r="K39">
+      <c r="K39" t="n">
         <v>-14.30800385087807</v>
       </c>
-      <c r="L39">
+      <c r="L39" t="n">
         <v>-12.49382459952017</v>
       </c>
     </row>
@@ -2079,37 +2072,37 @@
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B40">
+      <c r="B40" t="n">
         <v>-2.464378528541987</v>
       </c>
-      <c r="C40">
+      <c r="C40" t="n">
         <v>0</v>
       </c>
-      <c r="D40">
+      <c r="D40" t="n">
         <v>-2.675877401937429</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="n">
         <v>-6.137517305029997</v>
       </c>
-      <c r="F40">
+      <c r="F40" t="n">
         <v>1.686711099527123</v>
       </c>
-      <c r="G40">
+      <c r="G40" t="n">
         <v>0</v>
       </c>
-      <c r="H40">
+      <c r="H40" t="n">
         <v>-2.589730251913497</v>
       </c>
-      <c r="I40">
+      <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="J40" t="n">
         <v>-5.054254711593364</v>
       </c>
-      <c r="K40">
+      <c r="K40" t="n">
         <v>-1.599969007864255</v>
       </c>
-      <c r="L40">
+      <c r="L40" t="n">
         <v>-4.778867058225371</v>
       </c>
     </row>
@@ -2117,37 +2110,37 @@
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B41">
+      <c r="B41" t="n">
         <v>13.33149577361265</v>
       </c>
-      <c r="C41">
+      <c r="C41" t="n">
         <v>21.34986225895318</v>
       </c>
-      <c r="D41">
+      <c r="D41" t="n">
         <v>19.5398547768622</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="n">
         <v>9.316617502458223</v>
       </c>
-      <c r="F41">
+      <c r="F41" t="n">
         <v>9.018674478213113</v>
       </c>
-      <c r="G41">
+      <c r="G41" t="n">
         <v>0</v>
       </c>
-      <c r="H41">
+      <c r="H41" t="n">
         <v>12.37419558737787</v>
       </c>
-      <c r="I41">
+      <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41">
+      <c r="J41" t="n">
         <v>8</v>
       </c>
-      <c r="K41">
+      <c r="K41" t="n">
         <v>-1.263779527559047</v>
       </c>
-      <c r="L41">
+      <c r="L41" t="n">
         <v>10.8026127005549</v>
       </c>
     </row>
@@ -2155,37 +2148,37 @@
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B42">
+      <c r="B42" t="n">
         <v>4.321037697608427</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="n">
         <v>2.451759364358675</v>
       </c>
-      <c r="D42">
+      <c r="D42" t="n">
         <v>12.38738738738738</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="n">
         <v>-1.798965594783001</v>
       </c>
-      <c r="F42">
+      <c r="F42" t="n">
         <v>-5.360561582641991</v>
       </c>
-      <c r="G42">
+      <c r="G42" t="n">
         <v>0</v>
       </c>
-      <c r="H42">
+      <c r="H42" t="n">
         <v>0.2104466900711821</v>
       </c>
-      <c r="I42">
+      <c r="I42" t="n">
         <v>62.02414113277624</v>
       </c>
-      <c r="J42">
+      <c r="J42" t="n">
         <v>-5.207463102199951</v>
       </c>
-      <c r="K42">
+      <c r="K42" t="n">
         <v>-3.154033254914472</v>
       </c>
-      <c r="L42">
+      <c r="L42" t="n">
         <v>1.858060167447138</v>
       </c>
     </row>
@@ -2193,37 +2186,37 @@
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B43">
+      <c r="B43" t="n">
         <v>8.416226297792976</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="n">
         <v>6.769333037890545</v>
       </c>
-      <c r="D43">
+      <c r="D43" t="n">
         <v>10.51193295682275</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="n">
         <v>-2.953972979161886</v>
       </c>
-      <c r="F43">
+      <c r="F43" t="n">
         <v>3.215388437378</v>
       </c>
-      <c r="G43">
+      <c r="G43" t="n">
         <v>-13.26039387308535</v>
       </c>
-      <c r="H43">
+      <c r="H43" t="n">
         <v>1.810686047749461</v>
       </c>
-      <c r="I43">
+      <c r="I43" t="n">
         <v>-11.28939828080229</v>
       </c>
-      <c r="J43">
+      <c r="J43" t="n">
         <v>1.733254994124564</v>
       </c>
-      <c r="K43">
+      <c r="K43" t="n">
         <v>18.6429512516469</v>
       </c>
-      <c r="L43">
+      <c r="L43" t="n">
         <v>2.72159191504059</v>
       </c>
     </row>
@@ -2231,37 +2224,37 @@
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B44">
+      <c r="B44" t="n">
         <v>-15.07418823023439</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="n">
         <v>-28.25568122859812</v>
       </c>
-      <c r="D44">
+      <c r="D44" t="n">
         <v>-29.10209913177273</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="n">
         <v>-30.36809815950921</v>
       </c>
-      <c r="F44">
+      <c r="F44" t="n">
         <v>-12.39899597703125</v>
       </c>
-      <c r="G44">
+      <c r="G44" t="n">
         <v>-35.8728557013118</v>
       </c>
-      <c r="H44">
+      <c r="H44" t="n">
         <v>-8.0388205547423</v>
       </c>
-      <c r="I44">
+      <c r="I44" t="n">
         <v>-35.46511627906977</v>
       </c>
-      <c r="J44">
+      <c r="J44" t="n">
         <v>-20.73346809125036</v>
       </c>
-      <c r="K44">
+      <c r="K44" t="n">
         <v>-22.44239311493615</v>
       </c>
-      <c r="L44">
+      <c r="L44" t="n">
         <v>-22.64874914528224</v>
       </c>
     </row>
@@ -2269,37 +2262,37 @@
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B45">
+      <c r="B45" t="n">
         <v>1.628966914247127</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="n">
         <v>-4.5270465721724</v>
       </c>
-      <c r="D45">
+      <c r="D45" t="n">
         <v>-7.177181832274054</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="n">
         <v>-0.9827177228058256</v>
       </c>
-      <c r="F45">
+      <c r="F45" t="n">
         <v>5.181143776739805</v>
       </c>
-      <c r="G45">
+      <c r="G45" t="n">
         <v>1.022816679779693</v>
       </c>
-      <c r="H45">
+      <c r="H45" t="n">
         <v>7.106827226213243</v>
       </c>
-      <c r="I45">
+      <c r="I45" t="n">
         <v>5.005005005005005</v>
       </c>
-      <c r="J45">
+      <c r="J45" t="n">
         <v>12.16757741347906</v>
       </c>
-      <c r="K45">
+      <c r="K45" t="n">
         <v>-9.651438543111549</v>
       </c>
-      <c r="L45">
+      <c r="L45" t="n">
         <v>-1.812536528345993</v>
       </c>
     </row>
@@ -2307,37 +2300,37 @@
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B46">
+      <c r="B46" t="n">
         <v>13.57860642803754</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="n">
         <v>23.72367823057112</v>
       </c>
-      <c r="D46">
+      <c r="D46" t="n">
         <v>30.62792251169004</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="n">
         <v>19.78097193702943</v>
       </c>
-      <c r="F46">
+      <c r="F46" t="n">
         <v>10.6280553793335</v>
       </c>
-      <c r="G46">
+      <c r="G46" t="n">
         <v>7.68431983385254</v>
       </c>
-      <c r="H46">
+      <c r="H46" t="n">
         <v>15.22961190111994</v>
       </c>
-      <c r="I46">
+      <c r="I46" t="n">
         <v>8.198284080076256</v>
       </c>
-      <c r="J46">
+      <c r="J46" t="n">
         <v>4.481974667099704</v>
       </c>
-      <c r="K46">
+      <c r="K46" t="n">
         <v>9.840530903328041</v>
       </c>
-      <c r="L46">
+      <c r="L46" t="n">
         <v>11.75380769202152</v>
       </c>
     </row>
@@ -2345,37 +2338,37 @@
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B47">
+      <c r="B47" t="n">
         <v>-3.626791459491083</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="n">
         <v>-4.616138116811556</v>
       </c>
-      <c r="D47">
+      <c r="D47" t="n">
         <v>-5.446177448222963</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="n">
         <v>-4.285714285714283</v>
       </c>
-      <c r="F47">
+      <c r="F47" t="n">
         <v>-9.573283858998147</v>
       </c>
-      <c r="G47">
+      <c r="G47" t="n">
         <v>-5.231436837029886</v>
       </c>
-      <c r="H47">
+      <c r="H47" t="n">
         <v>1.437586629983707</v>
       </c>
-      <c r="I47">
+      <c r="I47" t="n">
         <v>-9.4273127753304</v>
       </c>
-      <c r="J47">
+      <c r="J47" t="n">
         <v>-1.834006838669573</v>
       </c>
-      <c r="K47">
+      <c r="K47" t="n">
         <v>-3.570945488976049</v>
       </c>
-      <c r="L47">
+      <c r="L47" t="n">
         <v>-2.183813150816264</v>
       </c>
     </row>
@@ -2383,37 +2376,37 @@
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B48">
+      <c r="B48" t="n">
         <v>2.29893778452201</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="n">
         <v>-3.812580231065465</v>
       </c>
-      <c r="D48">
+      <c r="D48" t="n">
         <v>4.049486208761494</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="n">
         <v>-4.447761194029852</v>
       </c>
-      <c r="F48">
+      <c r="F48" t="n">
         <v>1.839071884209356</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="n">
         <v>-4.604426354617147</v>
       </c>
-      <c r="H48">
+      <c r="H48" t="n">
         <v>5.282451823841221</v>
       </c>
-      <c r="I48">
+      <c r="I48" t="n">
         <v>-0.7782101167315182</v>
       </c>
-      <c r="J48">
+      <c r="J48" t="n">
         <v>-4.686510449651682</v>
       </c>
-      <c r="K48">
+      <c r="K48" t="n">
         <v>0.3647075326132669</v>
       </c>
-      <c r="L48">
+      <c r="L48" t="n">
         <v>-0.7385172479512194</v>
       </c>
     </row>
@@ -2421,37 +2414,37 @@
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B49">
+      <c r="B49" t="n">
         <v>0.4598383149150737</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="n">
         <v>4.283998398505267</v>
       </c>
-      <c r="D49">
+      <c r="D49" t="n">
         <v>1.884218049509448</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="n">
         <v>-4.686035613870663</v>
       </c>
-      <c r="F49">
+      <c r="F49" t="n">
         <v>-5.989010989010994</v>
       </c>
-      <c r="G49">
+      <c r="G49" t="n">
         <v>-1.600000000000001</v>
       </c>
-      <c r="H49">
+      <c r="H49" t="n">
         <v>10.37948179052039</v>
       </c>
-      <c r="I49">
+      <c r="I49" t="n">
         <v>5.294117647058833</v>
       </c>
-      <c r="J49">
+      <c r="J49" t="n">
         <v>10.13289036544851</v>
       </c>
-      <c r="K49">
+      <c r="K49" t="n">
         <v>0.6848357791753946</v>
       </c>
-      <c r="L49">
+      <c r="L49" t="n">
         <v>0.4453785546283107</v>
       </c>
     </row>
@@ -2459,37 +2452,37 @@
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B50">
+      <c r="B50" t="n">
         <v>17.35695828719085</v>
       </c>
-      <c r="C50">
+      <c r="C50" t="n">
         <v>0.358331200409516</v>
       </c>
-      <c r="D50">
+      <c r="D50" t="n">
         <v>-3.041897838148068</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="n">
         <v>0.9832841691248706</v>
       </c>
-      <c r="F50">
+      <c r="F50" t="n">
         <v>7.021235145139293</v>
       </c>
-      <c r="G50">
+      <c r="G50" t="n">
         <v>3.252032520325206</v>
       </c>
-      <c r="H50">
+      <c r="H50" t="n">
         <v>9.584622543987097</v>
       </c>
-      <c r="I50">
+      <c r="I50" t="n">
         <v>-10.70763500931099</v>
       </c>
-      <c r="J50">
+      <c r="J50" t="n">
         <v>4.67571644042233</v>
       </c>
-      <c r="K50">
+      <c r="K50" t="n">
         <v>2.2950212844716</v>
       </c>
-      <c r="L50">
+      <c r="L50" t="n">
         <v>1.697495571082841</v>
       </c>
     </row>
@@ -2497,37 +2490,37 @@
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B51">
+      <c r="B51" t="n">
         <v>0.2453447408152976</v>
       </c>
-      <c r="C51">
+      <c r="C51" t="n">
         <v>5.891354246365731</v>
       </c>
-      <c r="D51">
+      <c r="D51" t="n">
         <v>8.543804262036303</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="n">
         <v>4.868549172346638</v>
       </c>
-      <c r="F51">
+      <c r="F51" t="n">
         <v>1.066734627006964</v>
       </c>
-      <c r="G51">
+      <c r="G51" t="n">
         <v>13.38582677165355</v>
       </c>
-      <c r="H51">
+      <c r="H51" t="n">
         <v>-0.9452678258839995</v>
       </c>
-      <c r="I51">
+      <c r="I51" t="n">
         <v>15.53701772679875</v>
       </c>
-      <c r="J51">
+      <c r="J51" t="n">
         <v>-3.746397694524505</v>
       </c>
-      <c r="K51">
+      <c r="K51" t="n">
         <v>3.758820336529761</v>
       </c>
-      <c r="L51">
+      <c r="L51" t="n">
         <v>3.56286962884396</v>
       </c>
     </row>
@@ -2535,37 +2528,37 @@
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B52">
+      <c r="B52" t="n">
         <v>2.547850643238159</v>
       </c>
-      <c r="C52">
+      <c r="C52" t="n">
         <v>3.913776493256253</v>
       </c>
-      <c r="D52">
+      <c r="D52" t="n">
         <v>-2.847967036296424</v>
       </c>
-      <c r="E52">
+      <c r="E52" t="n">
         <v>-1.857010213556176</v>
       </c>
-      <c r="F52">
+      <c r="F52" t="n">
         <v>-2.845821325648425</v>
       </c>
-      <c r="G52">
+      <c r="G52" t="n">
         <v>-8.564814814814817</v>
       </c>
-      <c r="H52">
+      <c r="H52" t="n">
         <v>-3.958856948371551</v>
       </c>
-      <c r="I52">
+      <c r="I52" t="n">
         <v>18.14079422382671</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="n">
         <v>-3.892215568862272</v>
       </c>
-      <c r="K52">
+      <c r="K52" t="n">
         <v>-3.43083831030123</v>
       </c>
-      <c r="L52">
+      <c r="L52" t="n">
         <v>-2.618384762225772</v>
       </c>
     </row>
@@ -2573,37 +2566,37 @@
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B53">
+      <c r="B53" t="n">
         <v>5.030291903800252</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="n">
         <v>-1.935334337698457</v>
       </c>
-      <c r="D53">
+      <c r="D53" t="n">
         <v>6.293270130356142</v>
       </c>
-      <c r="E53">
+      <c r="E53" t="n">
         <v>2.522863450015771</v>
       </c>
-      <c r="F53">
+      <c r="F53" t="n">
         <v>0.5190952910641475</v>
       </c>
-      <c r="G53">
+      <c r="G53" t="n">
         <v>6.329113924050632</v>
       </c>
-      <c r="H53">
+      <c r="H53" t="n">
         <v>6.7270701364019</v>
       </c>
-      <c r="I53">
+      <c r="I53" t="n">
         <v>-6.111535523300235</v>
       </c>
-      <c r="J53">
+      <c r="J53" t="n">
         <v>2.180685358255447</v>
       </c>
-      <c r="K53">
+      <c r="K53" t="n">
         <v>-0.06319971108703208</v>
       </c>
-      <c r="L53">
+      <c r="L53" t="n">
         <v>3.188005458115618</v>
       </c>
     </row>
@@ -2611,37 +2604,37 @@
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B54">
+      <c r="B54" t="n">
         <v>6.484880265687814</v>
       </c>
-      <c r="C54">
+      <c r="C54" t="n">
         <v>2.31623729614748</v>
       </c>
-      <c r="D54">
+      <c r="D54" t="n">
         <v>12.35183663889213</v>
       </c>
-      <c r="E54">
+      <c r="E54" t="n">
         <v>0</v>
       </c>
-      <c r="F54">
+      <c r="F54" t="n">
         <v>1.032829214312066</v>
       </c>
-      <c r="G54">
+      <c r="G54" t="n">
         <v>28.09523809523809</v>
       </c>
-      <c r="H54">
+      <c r="H54" t="n">
         <v>0.3553492351850017</v>
       </c>
-      <c r="I54">
+      <c r="I54" t="n">
         <v>-5.939788445890957</v>
       </c>
-      <c r="J54">
+      <c r="J54" t="n">
         <v>8.536585365853666</v>
       </c>
-      <c r="K54">
+      <c r="K54" t="n">
         <v>-1.201553889240228</v>
       </c>
-      <c r="L54">
+      <c r="L54" t="n">
         <v>4.823108605413997</v>
       </c>
     </row>
@@ -2649,37 +2642,37 @@
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B55">
+      <c r="B55" t="n">
         <v>-1.37338586123879</v>
       </c>
-      <c r="C55">
+      <c r="C55" t="n">
         <v>8.408408408408405</v>
       </c>
-      <c r="D55">
+      <c r="D55" t="n">
         <v>-13.75672429101163</v>
       </c>
-      <c r="E55">
+      <c r="E55" t="n">
         <v>3.660412180867433</v>
       </c>
-      <c r="F55">
+      <c r="F55" t="n">
         <v>-3.176341730558602</v>
       </c>
-      <c r="G55">
+      <c r="G55" t="n">
         <v>-13.38289962825278</v>
       </c>
-      <c r="H55">
+      <c r="H55" t="n">
         <v>4.72280371334219</v>
       </c>
-      <c r="I55">
+      <c r="I55" t="n">
         <v>6.314878892733552</v>
       </c>
-      <c r="J55">
+      <c r="J55" t="n">
         <v>-6.179775280898882</v>
       </c>
-      <c r="K55">
+      <c r="K55" t="n">
         <v>-2.491770299926839</v>
       </c>
-      <c r="L55">
+      <c r="L55" t="n">
         <v>-4.504266114466645</v>
       </c>
     </row>
@@ -2687,37 +2680,37 @@
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B56">
+      <c r="B56" t="n">
         <v>0.9098474341192871</v>
       </c>
-      <c r="C56">
+      <c r="C56" t="n">
         <v>62.27359897720009</v>
       </c>
-      <c r="D56">
+      <c r="D56" t="n">
         <v>3.851510930781803</v>
       </c>
-      <c r="E56">
+      <c r="E56" t="n">
         <v>-0.5934718100890213</v>
       </c>
-      <c r="F56">
+      <c r="F56" t="n">
         <v>3.695324283559579</v>
       </c>
-      <c r="G56">
+      <c r="G56" t="n">
         <v>8.369098712446345</v>
       </c>
-      <c r="H56">
+      <c r="H56" t="n">
         <v>3.073478526358646</v>
       </c>
-      <c r="I56">
+      <c r="I56" t="n">
         <v>3.010577705451595</v>
       </c>
-      <c r="J56">
+      <c r="J56" t="n">
         <v>7.185628742514977</v>
       </c>
-      <c r="K56">
+      <c r="K56" t="n">
         <v>5.415670277113507</v>
       </c>
-      <c r="L56">
+      <c r="L56" t="n">
         <v>1.789189467850659</v>
       </c>
     </row>
@@ -2725,37 +2718,37 @@
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B57">
+      <c r="B57" t="n">
         <v>3.936445104183854</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="n">
         <v>-4.004989823386511</v>
       </c>
-      <c r="D57">
+      <c r="D57" t="n">
         <v>0.4023558224969331</v>
       </c>
-      <c r="E57">
+      <c r="E57" t="n">
         <v>21.13432835820895</v>
       </c>
-      <c r="F57">
+      <c r="F57" t="n">
         <v>-0.2181818181818135</v>
       </c>
-      <c r="G57">
+      <c r="G57" t="n">
         <v>0.7920792079207928</v>
       </c>
-      <c r="H57">
+      <c r="H57" t="n">
         <v>2.973285232604738</v>
       </c>
-      <c r="I57">
+      <c r="I57" t="n">
         <v>-8.214849921011066</v>
       </c>
-      <c r="J57">
+      <c r="J57" t="n">
         <v>-0.2793296089385539</v>
       </c>
-      <c r="K57">
+      <c r="K57" t="n">
         <v>7.365892714171347</v>
       </c>
-      <c r="L57">
+      <c r="L57" t="n">
         <v>2.613344644321133</v>
       </c>
     </row>
@@ -2763,37 +2756,37 @@
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B58">
+      <c r="B58" t="n">
         <v>15.71012959534514</v>
       </c>
-      <c r="C58">
+      <c r="C58" t="n">
         <v>8.138978182066886</v>
       </c>
-      <c r="D58">
+      <c r="D58" t="n">
         <v>-2.787780229991871</v>
       </c>
-      <c r="E58">
+      <c r="E58" t="n">
         <v>0</v>
       </c>
-      <c r="F58">
+      <c r="F58" t="n">
         <v>9.256559766763845</v>
       </c>
-      <c r="G58">
+      <c r="G58" t="n">
         <v>-0.1964636542239644</v>
       </c>
-      <c r="H58">
+      <c r="H58" t="n">
         <v>8.937935061366559</v>
       </c>
-      <c r="I58">
+      <c r="I58" t="n">
         <v>5.421686746987959</v>
       </c>
-      <c r="J58">
+      <c r="J58" t="n">
         <v>-5.322128851540615</v>
       </c>
-      <c r="K58">
+      <c r="K58" t="n">
         <v>15.41138453890131</v>
       </c>
-      <c r="L58">
+      <c r="L58" t="n">
         <v>-0.5928933007992584</v>
       </c>
     </row>
@@ -2801,37 +2794,37 @@
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B59">
+      <c r="B59" t="n">
         <v>-0.4845714285714361</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="n">
         <v>-25.0142305989501</v>
       </c>
-      <c r="D59">
+      <c r="D59" t="n">
         <v>-2.108973593021854</v>
       </c>
-      <c r="E59">
+      <c r="E59" t="n">
         <v>-7.614588467225228</v>
       </c>
-      <c r="F59">
+      <c r="F59" t="n">
         <v>14.24282855236824</v>
       </c>
-      <c r="G59">
+      <c r="G59" t="n">
         <v>-0.590551181102367</v>
       </c>
-      <c r="H59">
+      <c r="H59" t="n">
         <v>7.019387655903923</v>
       </c>
-      <c r="I59">
+      <c r="I59" t="n">
         <v>-25.55102040816327</v>
       </c>
-      <c r="J59">
+      <c r="J59" t="n">
         <v>0</v>
       </c>
-      <c r="K59">
+      <c r="K59" t="n">
         <v>-6.245961662718077</v>
       </c>
-      <c r="L59">
+      <c r="L59" t="n">
         <v>-2.105501612097413</v>
       </c>
     </row>
@@ -2839,37 +2832,37 @@
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B60">
+      <c r="B60" t="n">
         <v>9.881023473747087</v>
       </c>
-      <c r="C60">
+      <c r="C60" t="n">
         <v>-13.61336032388663</v>
       </c>
-      <c r="D60">
+      <c r="D60" t="n">
         <v>-0.4760451632590965</v>
       </c>
-      <c r="E60">
+      <c r="E60" t="n">
         <v>-10.37610029341158</v>
       </c>
-      <c r="F60">
+      <c r="F60" t="n">
         <v>10.33576642335766</v>
       </c>
-      <c r="G60">
+      <c r="G60" t="n">
         <v>-1.78217821782178</v>
       </c>
-      <c r="H60">
+      <c r="H60" t="n">
         <v>7.124882463130852</v>
       </c>
-      <c r="I60">
+      <c r="I60" t="n">
         <v>-12.49999999999999</v>
       </c>
-      <c r="J60">
+      <c r="J60" t="n">
         <v>-2.958579881656807</v>
       </c>
-      <c r="K60">
+      <c r="K60" t="n">
         <v>2.052224519488481</v>
       </c>
-      <c r="L60">
+      <c r="L60" t="n">
         <v>-1.188083660362766</v>
       </c>
     </row>
@@ -2877,41 +2870,41 @@
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B61">
+      <c r="B61" t="n">
         <v>8.862876254180591</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="n">
         <v>12.49755907049404</v>
       </c>
-      <c r="D61">
+      <c r="D61" t="n">
         <v>3.605813454344766</v>
       </c>
-      <c r="E61">
+      <c r="E61" t="n">
         <v>11.60714285714286</v>
       </c>
-      <c r="F61">
+      <c r="F61" t="n">
         <v>-1.270177295580833</v>
       </c>
-      <c r="G61">
+      <c r="G61" t="n">
         <v>1.008064516129029</v>
       </c>
-      <c r="H61">
+      <c r="H61" t="n">
         <v>6.52679103451438</v>
       </c>
-      <c r="I61">
+      <c r="I61" t="n">
         <v>10.52631578947368</v>
       </c>
-      <c r="J61">
+      <c r="J61" t="n">
         <v>4.573170731707328</v>
       </c>
-      <c r="K61">
+      <c r="K61" t="n">
         <v>13.07871238838449</v>
       </c>
-      <c r="L61">
+      <c r="L61" t="n">
         <v>2.414040895937995</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>